--- a/Versuch7/datasets/lambda.xlsx
+++ b/Versuch7/datasets/lambda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele Calvanese\Uni\Grundpraktikum\Versuch7\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{953E8B5F-65CD-4F46-9522-998030F12CA5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B327D8D-E7AD-45A0-9CBB-64725C9988EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22932" windowHeight="8268" activeTab="1" xr2:uid="{D7C8B3E0-33DF-4170-BEA2-6DD4D44B0533}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22932" windowHeight="8268" xr2:uid="{D7C8B3E0-33DF-4170-BEA2-6DD4D44B0533}"/>
   </bookViews>
   <sheets>
     <sheet name="Lambda2" sheetId="1" r:id="rId1"/>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A26B380-CB57-41F4-BC85-9CB035FD1A79}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +507,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D07242A-E518-4389-898D-554C23E07BA5}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
